--- a/com.synet.tool.rsc/src/com/synet/tool/rsc/editor/tree/ICDCompare.xlsx
+++ b/com.synet.tool.rsc/src/com/synet/tool/rsc/editor/tree/ICDCompare.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ws-tools\RS5000\com.synet.tool.rsc\src\com\synet\tool\rsc\editor\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E897D9B-76B9-4DA6-A31A-B66604F713DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A0E06A-0EE7-4959-97FE-18018CD103FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="588" windowWidth="15480" windowHeight="8868"/>
+    <workbookView xWindow="72" yWindow="588" windowWidth="15480" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ICD内容比较" sheetId="2" r:id="rId1"/>
+    <sheet name="文件比较结果" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>报告时间：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,48 +30,113 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#foreach group  in ${diffs}</t>
+  </si>
+  <si>
+    <t>${group.name}</t>
+  </si>
+  <si>
+    <t>${group.op.desc}</t>
+  </si>
+  <si>
+    <t>${subGroup.op.desc}</t>
+  </si>
+  <si>
+    <t>${diff.op.desc}</t>
+  </si>
+  <si>
+    <t>#foreach subGroup  in ${group.children}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#foreach diff  in ${subGroup.children}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${diff.msg}  ${diff.infect}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${subGroup.msg}  ${subGroup.infect}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${group.msg}  ${group.infect}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#foreach diffGroup  in ${diff.children}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${diffGroup.msg}  ${diffGroup.infect}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#foreach subdiff  in ${diffGroup.children}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${subdiff.msg}  ${subdiff.infect}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${diffGroup.op.desc}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${subdiff.op.desc}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${printDate}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ICD内容比较</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#foreach group  in ${diffs}</t>
-  </si>
-  <si>
-    <t>${group.name}</t>
-  </si>
-  <si>
-    <t>${group.op.desc}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ${subGroup.name}</t>
-  </si>
-  <si>
-    <t>${subGroup.op.desc}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ${diff.name}</t>
-  </si>
-  <si>
-    <t>${diff.op.desc}</t>
-  </si>
-  <si>
-    <t>#foreach subGroup  in ${group.children}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#foreach diff  in ${subGroup.children}</t>
+    <t>${subGroup.name}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${diff.name}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${diffGroup.name}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${subdiff.name}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${group.type}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ${subGroup.type}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ${diff.type}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     ${diffGroup.type}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            ${subdiff.type}</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -79,23 +144,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${diff.msg}  ${diff.infect}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${subGroup.msg}  ${subGroup.infect}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${group.msg}  ${group.infect}</t>
+    <t>新名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${group.desc}</t>
+  </si>
+  <si>
+    <t>${subGroup.desc}</t>
+  </si>
+  <si>
+    <t>${diff.desc}</t>
+  </si>
+  <si>
+    <t>${diffGroup.desc}</t>
+  </si>
+  <si>
+    <t>${subdiff.desc}</t>
+  </si>
+  <si>
+    <t>${group.newName}</t>
+  </si>
+  <si>
+    <t>${subGroup.newName}</t>
+  </si>
+  <si>
+    <t>${diff.newName}</t>
+  </si>
+  <si>
+    <t>${diffGroup.newName}</t>
+  </si>
+  <si>
+    <t>${subdiff.newName}</t>
+  </si>
+  <si>
+    <t>${group.newDesc}</t>
+  </si>
+  <si>
+    <t>${subGroup.newDesc}</t>
+  </si>
+  <si>
+    <t>${diff.newDesc}</t>
+  </si>
+  <si>
+    <t>${diffGroup.newDesc}</t>
+  </si>
+  <si>
+    <t>${subdiff.newDesc}</t>
+  </si>
+  <si>
+    <t>文件比较结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -134,6 +244,20 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -249,7 +373,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,7 +389,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -278,13 +401,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,7 +426,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_aaa" xfId="1"/>
+    <cellStyle name="常规_aaa" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,248 +737,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.09765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8" style="2"/>
+    <col min="2" max="2" width="28.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="49.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="25.8" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" ht="25.8" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="2:10" s="4" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16" t="s">
+    </row>
+    <row r="15" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="H16" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
